--- a/data/Download/dataDefine_full.xlsx
+++ b/data/Download/dataDefine_full.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>GSDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-03_12-31-36.788103</t>
+          <t>2025-07-03_14-45-39.043774</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12-31-36.788103</t>
+          <t>14-45-39.043774</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -564,34 +564,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>709019352.929332</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5513.02836892939</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#VALUE!</v>
+        <v>13.604</v>
+      </c>
+      <c r="D2">
+        <v>0.21561234369605</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>321869.044883959</v>
+      </c>
+      <c r="G2">
+        <v>1.84011562384092</v>
+      </c>
+      <c r="H2">
+        <v>24.1722417555315</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>148.2131845</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>82.188</v>
       </c>
     </row>
   </sheetData>
@@ -763,79 +763,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>-13604000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-5141000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-11539000</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-2064300.088</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-245471.39975</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1742677.80025</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4791991.66275</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7201642.9995</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9753629.7175</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12108952.7975</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14917612.2675</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17083609.0925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18044941.3075</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>20083609.895</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20910614.855</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>22675956.205</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>22953633.91</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>23901649.005</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>24451999.455</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>24335686.295</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>23972709.5075</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>23637069.0925</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>23796765.0675</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>23163797.3975</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>21904400</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tbs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D2">
@@ -1061,70 +1061,70 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2658.516064</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4044.857143</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4829.469543</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6852.898093</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8728.801714</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10457.18041</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12038.03417</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13471.36301</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14757.16691</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>15895.44589</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>16886.19994</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>17729.42906</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>18425.13326</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>18973.31252</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>19373.96686</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>19627.09626</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>19732.70074</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>19690.78029</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>19501.33491</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>19164.36461</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>18679.86937</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>18048</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1327,30 +1327,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Urea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1434,17 +1434,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>NPK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D3">
@@ -1457,70 +1457,70 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1541,93 +1541,93 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Dolomit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1648,93 +1648,93 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk kandang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1755,93 +1755,93 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Roundup</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>l</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1862,27 +1862,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Semat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1969,17 +1969,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Gramoxone</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8">
@@ -1992,70 +1992,70 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2076,21 +2076,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>cangkul</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2183,17 +2183,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>gancu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D10">
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -2290,21 +2290,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Dodos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2397,17 +2397,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Egreg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D12">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2504,21 +2504,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Angkong</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2611,21 +2611,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Sprayer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2718,93 +2718,93 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Parang</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2825,17 +2825,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>motor pengangkut</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D16">
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2932,17 +2932,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan motor (ganti oli)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D17">
@@ -2955,70 +2955,70 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3039,17 +3039,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>fiber egrek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D18">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3146,17 +3146,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan sprayer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D19">
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3253,93 +3253,93 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan angkong</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3360,24 +3360,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>bibit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Kelapa Sawit (lokal)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>bibit</t>
         </is>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3467,21 +3467,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Tebas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3574,21 +3574,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Tumbang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3681,24 +3681,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kerja</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pembuatan lubang &amp; penanaman</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3788,93 +3788,93 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kerja</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pembersihan lahan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3895,17 +3895,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pruning</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D26">
@@ -3915,73 +3915,73 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4002,93 +4002,93 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Penyemprotan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4109,93 +4109,93 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pemupukan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -4216,17 +4216,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pemanenan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>HOK</t>
         </is>
       </c>
       <c r="D29">
@@ -4239,70 +4239,70 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5.317032</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>8.089714</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>9.658939</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>13.7058</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>17.4576</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>20.91436</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>24.07607</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>26.94273</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>29.51433</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>31.79089</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>33.7724</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>35.45886</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>36.85027</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>37.94663</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>38.74793</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>39.25419</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>39.4654</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>39.38156</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>39.00267</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>38.32873</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>37.35974</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>36.096</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4360,561 +4360,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Urea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/kg</t>
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>NPK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/kg</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Dolomit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/kg</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk kandang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/kg</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Roundup</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/l</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Semat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/L</t>
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pupuk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Gramoxone</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/L</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>cangkul</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>gancu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Dodos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Egreg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>585000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Angkong</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Sprayer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Parang</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>motor pengangkut</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan motor (ganti oli)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>fiber egrek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan sprayer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>perawatan angkong</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/unit</t>
         </is>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>bibit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Kelapa Sawit (lokal)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/bibit</t>
         </is>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Tebas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Tumbang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kerja</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pembuatan lubang &amp; penanaman</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kerja</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pembersihan lahan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pruning</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Penyemprotan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Pemupukan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tenaga kerja</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pemanenan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>rp</t>
+          <t>Rp/HOK</t>
         </is>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tbs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
